--- a/Data/Calibration/DepreciationParameters/Program/data/SOI_Proprietorships/Farm_Data.xlsx
+++ b/Data/Calibration/DepreciationParameters/Program/data/SOI_Proprietorships/Farm_Data.xlsx
@@ -26,22 +26,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Land and Buildings for Partnerships</t>
-  </si>
-  <si>
-    <t>Land and Buildings for Sole Proprietors</t>
-  </si>
-  <si>
-    <t>Machinery and Equipment for Partnerships</t>
-  </si>
-  <si>
-    <t>Machinery and Equipment for Sole Proprietors</t>
-  </si>
-  <si>
-    <t>Acreage for Partnerships</t>
-  </si>
-  <si>
-    <t>Acreage for Sole Proprietors</t>
+    <t>R_p</t>
+  </si>
+  <si>
+    <t>R_sp</t>
+  </si>
+  <si>
+    <t>Q_p</t>
+  </si>
+  <si>
+    <t>Q_sp</t>
+  </si>
+  <si>
+    <t>A_p</t>
+  </si>
+  <si>
+    <t>A_sp</t>
   </si>
 </sst>
 </file>
@@ -362,7 +362,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,7 +393,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>137987000</v>
+        <v>1828946000</v>
       </c>
       <c r="B2">
         <v>137987000</v>
